--- a/console/Networking/jksChExcel/jksContainerMixinsXlsx/containerRegistry/components/GetTempToken.xlsx
+++ b/console/Networking/jksChExcel/jksContainerMixinsXlsx/containerRegistry/components/GetTempToken.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\12.12\JD\console;Management-and-Monitoring;可用性监控控制台中文元素（3份文件）-译文-提交\jksChExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="21840" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -121,9 +116,6 @@
     <t>GetTempToken_i18nKey_8</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>GetTempToken_i18nKey_9</t>
   </si>
   <si>
@@ -138,9 +130,6 @@
     </r>
   </si>
   <si>
-    <t>Token Download</t>
-  </si>
-  <si>
     <t>GetTempToken_i18nKey_10</t>
   </si>
   <si>
@@ -169,9 +158,6 @@
     </r>
   </si>
   <si>
-    <t>expired in X hour(s)</t>
-  </si>
-  <si>
     <t>GetTempToken_i18nKey_12</t>
   </si>
   <si>
@@ -278,9 +264,6 @@
       </rPr>
       <t>关闭</t>
     </r>
-  </si>
-  <si>
-    <t>Disable</t>
   </si>
   <si>
     <t>GetTempToken_i18nKey_19</t>
@@ -450,6 +433,22 @@
   </si>
   <si>
     <t>Operated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expired in X hour(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token Download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -483,6 +482,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -510,9 +516,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -852,13 +856,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="4" max="4" width="41.125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -882,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -931,7 +941,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -942,142 +952,142 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
